--- a/output/date/2021-12-18/2021-12-18_스탠드조명.xlsx
+++ b/output/date/2021-12-18/2021-12-18_스탠드조명.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>캥거 북유럽 플로어 &lt;b&gt;스탠드 조명&lt;/b&gt; 장스탠드 LED 거실등 KG-019</t>
+          <t>캥거 북유럽 플로어 스탠드 조명 장스탠드 LED 거실등 KG-019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>파파조명 다이아 장스탠드 거실 &lt;b&gt;스탠드 조명&lt;/b&gt; 무드등</t>
+          <t>파파조명 다이아 장스탠드 거실 스탠드 조명 무드등</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>이케아 &lt;b&gt;스탠드조명&lt;/b&gt; 장스탠드 플로어 독서등 거실 토가르프 레르스타 헥토그람 오르스티드 알렝</t>
+          <t>이케아 스탠드조명 장스탠드 플로어 독서등 거실 토가르프 레르스타 헥토그람 오르스티드 알렝</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>이케아 &lt;b&gt;스탠드 조명&lt;/b&gt; LED거실등 무드등 장스탠드 침실 인테리어</t>
+          <t>이케아 스탠드 조명 LED거실등 무드등 장스탠드 침실 인테리어</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>이케아 TAGARP 토가르프 상향식플로어&lt;b&gt;스탠드 조명&lt;/b&gt; 스텐드 전구미포함</t>
+          <t>이케아 TAGARP 토가르프 상향식플로어스탠드 조명 스텐드 전구미포함</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>예쁜 거실 인테리어 &lt;b&gt;스탠드조명&lt;/b&gt; 스탠드등 장스탠드 무선리모컨</t>
+          <t>예쁜 거실 인테리어 스탠드조명 스탠드등 장스탠드 무선리모컨</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>이케아 &lt;b&gt;스탠드 조명&lt;/b&gt; 등 LERSTA</t>
+          <t>이케아 스탠드 조명 등 LERSTA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>이케아 ARSTID 오르스티드 무드등 플로어&lt;b&gt;스탠드&lt;/b&gt; 장&lt;b&gt;스탠드&lt;/b&gt; 거실&lt;b&gt;조명&lt;/b&gt; 엔틱</t>
+          <t>이케아 ARSTID 오르스티드 무드등 플로어스탠드 장스탠드 거실조명 엔틱</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>무선 LED 장스탠드 플로어 롱 거실 침대 &lt;b&gt;스탠드 조명&lt;/b&gt; 무드등 램프</t>
+          <t>무선 LED 장스탠드 플로어 롱 거실 침대 스탠드 조명 무드등 램프</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>장스탠드 인테리어스탠드 &lt;b&gt;스탠드조명&lt;/b&gt; 플로어램프 &lt;b&gt;스탠드조명&lt;/b&gt;</t>
+          <t>장스탠드 인테리어스탠드 스탠드조명 플로어램프 스탠드조명</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>안방 &lt;b&gt;조명&lt;/b&gt; 장 &lt;b&gt;스탠드&lt;/b&gt; 북유럽 모던 거실 침실 침대 취침 플로어 롱 깃털 무드 일자형 LED&lt;b&gt;조명&lt;/b&gt;</t>
+          <t>안방 조명 장 스탠드 북유럽 모던 거실 침실 침대 취침 플로어 롱 깃털 무드 일자형 LED조명</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>이케아 IKEA 장스탠드 LED &lt;b&gt;스탠드 조명&lt;/b&gt; 독서등 무드등 거실등</t>
+          <t>이케아 IKEA 장스탠드 LED 스탠드 조명 독서등 무드등 거실등</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>장&lt;b&gt;스탠드&lt;/b&gt; 무드등 레르스타 뉘모네 &lt;b&gt;조명&lt;/b&gt;등 독서등 플로어&lt;b&gt;스탠드&lt;/b&gt; 거실장 이케아 활장 스탠딩&lt;b&gt;조명&lt;/b&gt;</t>
+          <t>장스탠드 무드등 레르스타 뉘모네 조명등 독서등 플로어스탠드 거실장 이케아 활장 스탠딩조명</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RUSTA 마켓비 장&lt;b&gt;스탠드&lt;/b&gt; 거실&lt;b&gt;조명&lt;/b&gt; 스탠딩</t>
+          <t>RUSTA 마켓비 장스탠드 거실조명 스탠딩</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>이케아 &lt;b&gt;조명&lt;/b&gt; 플로어&lt;b&gt;스탠드&lt;/b&gt; LERSTA 거실 202.842.48</t>
+          <t>이케아 조명 플로어스탠드 LERSTA 거실 202.842.48</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>북유럽 원목 장 &lt;b&gt;스탠드 조명&lt;/b&gt; 선반 거실 침실 조명</t>
+          <t>북유럽 원목 장 스탠드 조명 선반 거실 침실 조명</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>&lt;b&gt;스탠드조명&lt;/b&gt; 장스탠드 램프 이케아 거실 조명등 무드등 플로어 스탠딩</t>
+          <t>스탠드조명 장스탠드 램프 이케아 거실 조명등 무드등 플로어 스탠딩</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PH5 플로어스탠드 침실 거실 무드등 장&lt;b&gt;스탠드 조명&lt;/b&gt; 카페 장조명 가로등</t>
+          <t>PH5 플로어스탠드 침실 거실 무드등 장스탠드 조명 카페 장조명 가로등</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>파인굿즈 LED 장&lt;b&gt;스탠드 조명&lt;/b&gt; 거실 인테리어 책상 학습 독서 &lt;b&gt;스탠드조명&lt;/b&gt;</t>
+          <t>파인굿즈 LED 장스탠드 조명 거실 인테리어 책상 학습 독서 스탠드조명</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>북유럽 탁자 장 &lt;b&gt;스탠드조명&lt;/b&gt; 거실 침실 테이블</t>
+          <t>북유럽 탁자 장 스탠드조명 거실 침실 테이블</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>거실 &lt;b&gt;스탠드조명&lt;/b&gt; 심플 모던 북유럽 크리에이티브 가정용 침실 헤드라이트 개성</t>
+          <t>거실 스탠드조명 심플 모던 북유럽 크리에이티브 가정용 침실 헤드라이트 개성</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>엘사 크리스탈 눈꽃&lt;b&gt;스탠드 조명&lt;/b&gt; 램프11 이벤트행사</t>
+          <t>엘사 크리스탈 눈꽃스탠드 조명 램프11 이벤트행사</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>프리미엄 깃털 장스탠드 인테리어 거실 침대 탁상 플로어 스탠딩 LED &lt;b&gt;스탠드 조명&lt;/b&gt; 무드등</t>
+          <t>프리미엄 깃털 장스탠드 인테리어 거실 침대 탁상 플로어 스탠딩 LED 스탠드 조명 무드등</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>이케아 HEKTOGRAM 헥토그람 상향식플로어&lt;b&gt;스탠드 조명&lt;/b&gt; 거실등 전구포함</t>
+          <t>이케아 HEKTOGRAM 헥토그람 상향식플로어스탠드 조명 거실등 전구포함</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>마켓비 OGOLD 장&lt;b&gt;스탠드&lt;/b&gt; 플로어&lt;b&gt;스탠드&lt;/b&gt; 무드등 &lt;b&gt;조명&lt;/b&gt; 인테리어</t>
+          <t>마켓비 OGOLD 장스탠드 플로어스탠드 무드등 조명 인테리어</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>루이스 판텔라 플로어 &lt;b&gt;조명&lt;/b&gt; 램프 거실 장 &lt;b&gt;스탠드&lt;/b&gt; 유광 고급형 밝기조절 LED 램프2개포함</t>
+          <t>루이스 판텔라 플로어 조명 램프 거실 장 스탠드 유광 고급형 밝기조절 LED 램프2개포함</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>원목 아폴론 &lt;b&gt;스탠드 조명&lt;/b&gt; 장스탠드 무드등 선반 램프</t>
+          <t>원목 아폴론 스탠드 조명 장스탠드 무드등 선반 램프</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>삼성전자 인테리어 스탠드 플로어용 단&lt;b&gt;스탠드 조명&lt;/b&gt; 바디 쉐이드 브릭</t>
+          <t>삼성전자 인테리어 스탠드 플로어용 단스탠드 조명 바디 쉐이드 브릭</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>가온 LED 장&lt;b&gt;스탠드&lt;/b&gt; 플로어&lt;b&gt;스탠드&lt;/b&gt; 거실 무드등 &lt;b&gt;조명&lt;/b&gt; 인테리어</t>
+          <t>가온 LED 장스탠드 플로어스탠드 거실 무드등 조명 인테리어</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>깃털 장&lt;b&gt;스탠드&lt;/b&gt; 플로어램프 단&lt;b&gt;스탠드&lt;/b&gt; 무드등 인테리어&lt;b&gt;조명&lt;/b&gt;</t>
+          <t>깃털 장스탠드 플로어램프 단스탠드 무드등 인테리어조명</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>다이슨 라이트사이클 모프 &lt;b&gt;조명&lt;/b&gt; 플로어&lt;b&gt;스탠드형&lt;/b&gt;</t>
+          <t>다이슨 라이트사이클 모프 조명 플로어스탠드형</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>이케아조명등 활장 거실장스탠드전등 식물등 장&lt;b&gt;스텐드조명&lt;/b&gt; 스탠딩조명</t>
+          <t>이케아조명등 활장 거실장스탠드전등 식물등 장스텐드조명 스탠딩조명</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>거실 장스탠드 독서 조명 장&lt;b&gt;스텐드조명&lt;/b&gt;</t>
+          <t>거실 장스탠드 독서 조명 장스텐드조명</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>이케아텔뷘 조명등 장스탠드 &lt;b&gt;스탠드조명&lt;/b&gt; 등 긴 플로어 &lt;b&gt;스텐드조명&lt;/b&gt; 버섯모양스탠드</t>
+          <t>이케아텔뷘 조명등 장스탠드 스탠드조명 등 긴 플로어 스텐드조명 버섯모양스탠드</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>조명등 장스탠드 활 식물등 플로어 &lt;b&gt;스탠드 조명&lt;/b&gt; 뉘모네 라나르프 레르스타 필립스휴 이케아</t>
+          <t>조명등 장스탠드 활 식물등 플로어 스탠드 조명 뉘모네 라나르프 레르스타 필립스휴 이케아</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>이케아장스탠드 &lt;b&gt;스탠드조명&lt;/b&gt; 조명등 무드등 거실 플로어 인테리어 스텐드 긴스탠드 예쁜스탠드</t>
+          <t>이케아장스탠드 스탠드조명 조명등 무드등 거실 플로어 인테리어 스텐드 긴스탠드 예쁜스탠드</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>이케아 ARSTID 오르스티드 플로어&lt;b&gt;스탠드&lt;/b&gt; 장&lt;b&gt;스탠드&lt;/b&gt; 거실 &lt;b&gt;조명&lt;/b&gt; &lt;b&gt;스탠드&lt;/b&gt; 니켈도금 102.840.36</t>
+          <t>이케아 ARSTID 오르스티드 플로어스탠드 장스탠드 거실 조명 스탠드 니켈도금 102.840.36</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>장스탠드 플로어 활 스탠드 거실 &lt;b&gt;스탠드조명&lt;/b&gt; 리모컨</t>
+          <t>장스탠드 플로어 활 스탠드 거실 스탠드조명 리모컨</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>파파&lt;b&gt;조명&lt;/b&gt; 파파 로델리 장&lt;b&gt;스탠드&lt;/b&gt; 인테리어&lt;b&gt;스탠드&lt;/b&gt; 무드등 &lt;b&gt;조명&lt;/b&gt;</t>
+          <t>파파조명 파파 로델리 장스탠드 인테리어스탠드 무드등 조명</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LED 코너 플로어 램프 거실 서 장식 분위기 램프 침실 장식 &lt;b&gt;스탠드 조명&lt;/b&gt; 실내 조명</t>
+          <t>LED 코너 플로어 램프 거실 서 장식 분위기 램프 침실 장식 스탠드 조명 실내 조명</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>홈즈 오로라 &lt;b&gt;스탠드 조명&lt;/b&gt; 간접 무드등</t>
+          <t>홈즈 오로라 스탠드 조명 간접 무드등</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2981,37 +2981,45 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>활장스탠드 장스탠드 거실등 &lt;b&gt;스탠드조명&lt;/b&gt; 플로어스탠드</t>
+          <t>이케아 테르티알 포르소 책상 집게 스탠드 조명 LED 고정 공부 학습용 독서등 작업등</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29755495858</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82252449479</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2975549/29755495858.20211119232453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8225244/82252449479.1.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>98750</t>
+          <t>24290</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>빅코스트몰</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>이케아</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>이케아</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3029,7 +3037,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>장스탠드</t>
+          <t>단스탠드</t>
         </is>
       </c>
     </row>
@@ -3039,45 +3047,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>이케아 테르티알 포르소 책상 집게 &lt;b&gt;스탠드 조명&lt;/b&gt; LED 고정 공부 학습용 독서등 작업등</t>
+          <t>활장스탠드 장스탠드 거실등 스탠드조명 플로어스탠드</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82252449479</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29755495858</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8225244/82252449479.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2975549/29755495858.20211119232453.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>24290</t>
+          <t>98750</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>빅코스트몰</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>이케아</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>이케아</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>단스탠드</t>
+          <t>장스탠드</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>덴마크 카프라니 1960 Caprani 플로어 램프 장&lt;b&gt;스탠드&lt;/b&gt; 빈티지 플리츠 레트로 &lt;b&gt;조명&lt;/b&gt;</t>
+          <t>덴마크 카프라니 1960 Caprani 플로어 램프 장스탠드 빈티지 플리츠 레트로 조명</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>이케아 무드등 LED 장&lt;b&gt;스탠드 조명&lt;/b&gt; 식물등 독서등 거실 인테리어</t>
+          <t>이케아 무드등 LED 장스탠드 조명 식물등 독서등 거실 인테리어</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>마켓비 장스탠드 엔틱 롱 원룸 장&lt;b&gt;스텐드 조명&lt;/b&gt; 등 거실</t>
+          <t>마켓비 장스탠드 엔틱 롱 원룸 장스텐드 조명 등 거실</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>거실 &lt;b&gt;스탠드조명&lt;/b&gt; 북유럽 창의적이고 개성 서재 골드 모던 심플</t>
+          <t>거실 스탠드조명 북유럽 창의적이고 개성 서재 골드 모던 심플</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>스탠딩조명 거실 안방 침실 소파 장스탠드 클래식 포인트 &lt;b&gt;스탠드 조명&lt;/b&gt;</t>
+          <t>스탠딩조명 거실 안방 침실 소파 장스탠드 클래식 포인트 스탠드 조명</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>마켓비 장&lt;b&gt;스탠드&lt;/b&gt; 침실 거실 &lt;b&gt;조명&lt;/b&gt; 램프 롱 활장 플로어 독서등 무드등 인테리어</t>
+          <t>마켓비 장스탠드 침실 거실 조명 램프 롱 활장 플로어 독서등 무드등 인테리어</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>IKEA 이케아 ÅRSTID 오르스티드 플로어&lt;b&gt;스탠드&lt;/b&gt; 장&lt;b&gt;스탠드&lt;/b&gt; 거실&lt;b&gt;조명&lt;/b&gt; 니켈도금, 황동</t>
+          <t>IKEA 이케아 ÅRSTID 오르스티드 플로어스탠드 장스탠드 거실조명 니켈도금, 황동</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>북유럽 거실 침실 &lt;b&gt;스탠드조명&lt;/b&gt; 심플 인테리어 거실 소파등 북유럽 심플 스탠드 이케아 장식</t>
+          <t>북유럽 거실 침실 스탠드조명 심플 인테리어 거실 소파등 북유럽 심플 스탠드 이케아 장식</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[오늘 출발] 이케아 플로어 &lt;b&gt;스탠드 조명&lt;/b&gt; 인테리어 레르스타 거실 침실 장스탠드 독서등</t>
+          <t>[오늘 출발] 이케아 플로어 스탠드 조명 인테리어 레르스타 거실 침실 장스탠드 독서등</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LED독서등 눈보호 LED&lt;b&gt;스탠드 조명&lt;/b&gt; 책상 공부 스탠드 미니</t>
+          <t>LED독서등 눈보호 LED스탠드 조명 책상 공부 스탠드 미니</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>루이스 폴센 판텔라  플로어 고급형 &lt;b&gt;스탠드 조명&lt;/b&gt; 램프 장스탠드  무드등 수입 조명</t>
+          <t>루이스 폴센 판텔라  플로어 고급형 스탠드 조명 램프 장스탠드  무드등 수입 조명</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>바우하우스 카이저이델 모던 &lt;b&gt;스탠드 조명&lt;/b&gt; 침대 옆 테이블 램프 복고풍</t>
+          <t>바우하우스 카이저이델 모던 스탠드 조명 침대 옆 테이블 램프 복고풍</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>스피아노 몬스터램프 거실&lt;b&gt;조명&lt;/b&gt; 치히로의섬 키다리&lt;b&gt;스탠드&lt;/b&gt;</t>
+          <t>스피아노 몬스터램프 거실조명 치히로의섬 키다리스탠드</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>앤틱 거실 &lt;b&gt;스탠드 조명&lt;/b&gt; 등 바로니스 플로어 장스탠드 LED 전등 결혼선물 집들이선물</t>
+          <t>앤틱 거실 스탠드 조명 등 바로니스 플로어 장스탠드 LED 전등 결혼선물 집들이선물</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>IKEA 장스탠드 LED &lt;b&gt;스탠드 조명&lt;/b&gt; 독서등 무드등 거실등</t>
+          <t>IKEA 장스탠드 LED 스탠드 조명 독서등 무드등 거실등</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>이케아 TALLBYN 텔뷘 플로어&lt;b&gt;스탠드&lt;/b&gt;/전구미포함/&lt;b&gt;조명&lt;/b&gt;</t>
+          <t>이케아 TALLBYN 텔뷘 플로어스탠드/전구미포함/조명</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>캥거 장&lt;b&gt;스탠드&lt;/b&gt; 만달라키 노을 석양 &lt;b&gt;조명&lt;/b&gt; 선셋 무드등 MEL001</t>
+          <t>캥거 장스탠드 만달라키 노을 석양 조명 선셋 무드등 MEL001</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>벨라 장&lt;b&gt;스탠드&lt;/b&gt; 거실&lt;b&gt;스탠드&lt;/b&gt; 플로어 &lt;b&gt;조명&lt;/b&gt; 무드등 인테리어&lt;b&gt;스탠드&lt;/b&gt;</t>
+          <t>벨라 장스탠드 거실스탠드 플로어 조명 무드등 인테리어스탠드</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>책상 침대 무선 집게&lt;b&gt;스탠드 조명&lt;/b&gt; 독서등 미니 램프 테이블 북라이트</t>
+          <t>책상 침대 무선 집게스탠드 조명 독서등 미니 램프 테이블 북라이트</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>크리스탈 장&lt;b&gt;스탠드&lt;/b&gt; LED &lt;b&gt;조명&lt;/b&gt; 거실 침실 인테리어 &lt;b&gt;조명&lt;/b&gt;등기구</t>
+          <t>크리스탈 장스탠드 LED 조명 거실 침실 인테리어 조명등기구</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>이케아 TOMELILLA 토멜릴라 플로어&lt;b&gt;스탠드 조명&lt;/b&gt; 전구미포함</t>
+          <t>이케아 TOMELILLA 토멜릴라 플로어스탠드 조명 전구미포함</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>포라이트 플라워팟 VP5 플로어 거실 장 &lt;b&gt;스탠드&lt;/b&gt; 박지성&lt;b&gt;조명&lt;/b&gt;</t>
+          <t>포라이트 플라워팟 VP5 플로어 거실 장 스탠드 박지성조명</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>루나 장 &lt;b&gt;스탠드 조명&lt;/b&gt;</t>
+          <t>루나 장 스탠드 조명</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>조명 에시아 장&lt;b&gt;스탠드 조명&lt;/b&gt;스탠드 LED스탠드</t>
+          <t>조명 에시아 장스탠드 조명스탠드 LED스탠드</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>북유럽 모던 &lt;b&gt;스탠드 조명&lt;/b&gt; 북유럽 포스트 모던 산업 스</t>
+          <t>북유럽 모던 스탠드 조명 북유럽 포스트 모던 산업 스</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>북유럽 스탠드 루이스 판텔라 플로어 램프 장 &lt;b&gt;스탠드 조명&lt;/b&gt; 오팔화이트 거실 소파 테이블 모던</t>
+          <t>북유럽 스탠드 루이스 판텔라 플로어 램프 장 스탠드 조명 오팔화이트 거실 소파 테이블 모던</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>&lt;b&gt;스탠드조명&lt;/b&gt; 장스탠드 침실조명 트리니티 하프 장스탠드</t>
+          <t>스탠드조명 장스탠드 침실조명 트리니티 하프 장스탠드</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>복고풍 레트로 크리스탈 &lt;b&gt;스탠드 조명&lt;/b&gt; 램프 앤틱스타일</t>
+          <t>복고풍 레트로 크리스탈 스탠드 조명 램프 앤틱스타일</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LED장스탠드 &lt;b&gt;스탠드조명&lt;/b&gt; 장스탠드 코너 스탠드 램프 RGB 3색 리모콘</t>
+          <t>LED장스탠드 스탠드조명 장스탠드 코너 스탠드 램프 RGB 3색 리모콘</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>마켓비 단&lt;b&gt;스탠드&lt;/b&gt; 라탄 이케아 &lt;b&gt;조명&lt;/b&gt; 책상 미니 독서등 침대 침실 우드 엔틱 무드등 갓 램프</t>
+          <t>마켓비 단스탠드 라탄 이케아 조명 책상 미니 독서등 침대 침실 우드 엔틱 무드등 갓 램프</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>이케아 SIMRISHAMN 심리스함 플로어&lt;b&gt;스탠드&lt;/b&gt; 전구미포함 &lt;b&gt;조명&lt;/b&gt; 장&lt;b&gt;스탠드&lt;/b&gt; 거실등</t>
+          <t>이케아 SIMRISHAMN 심리스함 플로어스탠드 전구미포함 조명 장스탠드 거실등</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5003,7 +5003,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>이자벨32 클래식장&lt;b&gt;스탠드조명&lt;/b&gt; 장&lt;b&gt;스텐드조명&lt;/b&gt; 스탠드</t>
+          <t>이자벨32 클래식장스탠드조명 장스텐드조명 스탠드</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>이케아 LERSTA 레르스타 플로어&lt;b&gt;스탠드&lt;/b&gt; 스마트 &lt;b&gt;조명&lt;/b&gt; 독서등 장 &lt;b&gt;스탠드&lt;/b&gt; 거실 2color</t>
+          <t>이케아 LERSTA 레르스타 플로어스탠드 스마트 조명 독서등 장 스탠드 거실 2color</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>루이스폴센 판텔라 &lt;b&gt;조명&lt;/b&gt; 인테리어 장 &lt;b&gt;스탠드&lt;/b&gt; 스틸</t>
+          <t>루이스폴센 판텔라 조명 인테리어 장 스탠드 스틸</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>선셋 만달라키 플로어 &lt;b&gt;스탠드 조명&lt;/b&gt; 석양 감성 무드등</t>
+          <t>선셋 만달라키 플로어 스탠드 조명 석양 감성 무드등</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>거실장스탠드 &lt;b&gt;스탠드조명&lt;/b&gt; 스탠드등 이케아 스탠딩 식물 침실 긴 활장 플로어램프 롱 인테리어</t>
+          <t>거실장스탠드 스탠드조명 스탠드등 이케아 스탠딩 식물 침실 긴 활장 플로어램프 롱 인테리어</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>인테리어 장스탠드 취침등 수유등 플로어스탠드 롱&lt;b&gt;스탠드 조명&lt;/b&gt;</t>
+          <t>인테리어 장스탠드 취침등 수유등 플로어스탠드 롱스탠드 조명</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>이케아 얀셰, 집게 &lt;b&gt;스탠드조명&lt;/b&gt; 클립 자바라 led독서등</t>
+          <t>이케아 얀셰, 집게 스탠드조명 클립 자바라 led독서등</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5425,7 +5425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>스탠딩&lt;b&gt;조명&lt;/b&gt; STRIT 거실장&lt;b&gt;스탠드&lt;/b&gt; 식물등&lt;b&gt;스탠드&lt;/b&gt; 필립스휴&lt;b&gt;스탠드&lt;/b&gt; E26 골드 무드등 마켓비</t>
+          <t>스탠딩조명 STRIT 거실장스탠드 식물등스탠드 필립스휴스탠드 E26 골드 무드등 마켓비</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>&lt;b&gt;스탠드조명&lt;/b&gt; 장스탠드 침실조명 코니 아일랜드 장스탠드</t>
+          <t>스탠드조명 장스탠드 침실조명 코니 아일랜드 장스탠드</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>장스탠드 플로어 활 스탠드 거실 &lt;b&gt;스탠드조명&lt;/b&gt; 리모컨</t>
+          <t>장스탠드 플로어 활 스탠드 거실 스탠드조명 리모컨</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>파파 튤립 장스탠드 인테리어&lt;b&gt;스탠드 조명&lt;/b&gt;</t>
+          <t>파파 튤립 장스탠드 인테리어스탠드 조명</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>거실&lt;b&gt;스탠드조명&lt;/b&gt; 플로어 램프 ins 북유럽의 창의적인 아이덴티티_ 000015350</t>
+          <t>거실스탠드조명 플로어 램프 ins 북유럽의 창의적인 아이덴티티_ 000015350</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>북유럽 거실 플로어 깃털&lt;b&gt;스탠드&lt;/b&gt; 인테리어 &lt;b&gt;조명&lt;/b&gt;</t>
+          <t>북유럽 거실 플로어 깃털스탠드 인테리어 조명</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>한샘 한샘몰X스피아노 헤이즈 &lt;b&gt;스탠드 조명&lt;/b&gt;SET 플로어 테이블 인테리어스탠드 장스탠드</t>
+          <t>한샘 한샘몰X스피아노 헤이즈 스탠드 조명SET 플로어 테이블 인테리어스탠드 장스탠드</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>라루즈 라르고 밝기조절 장스탠드 무드등 식탁 &lt;b&gt;스탠드조명&lt;/b&gt; 거실등 인테리어 조명 LED 디밍</t>
+          <t>라루즈 라르고 밝기조절 장스탠드 무드등 식탁 스탠드조명 거실등 인테리어 조명 LED 디밍</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5905,7 +5905,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>&lt;b&gt;스탠드 조명&lt;/b&gt; 북유럽 스탠드 거실의 미니멀리즘과 심플한 침실 서재 침대의 인스풍 스탠드</t>
+          <t>스탠드 조명 북유럽 스탠드 거실의 미니멀리즘과 심플한 침실 서재 침대의 인스풍 스탠드</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>이케아 가성비갑 플로어 장 거실 인테리어 &lt;b&gt;스탠드&lt;/b&gt; 독서등 &lt;b&gt;조명&lt;/b&gt; 등기구 LED 북유럽 레르스타 오르스티드 라나르프 홀뫼</t>
+          <t>이케아 가성비갑 플로어 장 거실 인테리어 스탠드 독서등 조명 등기구 LED 북유럽 레르스타 오르스티드 라나르프 홀뫼</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>마켓비 집게 &lt;b&gt;스탠드&lt;/b&gt; 단 집게형 &lt;b&gt;조명&lt;/b&gt; LED 독서등 책상 테이블 미니램프</t>
+          <t>마켓비 집게 스탠드 단 집게형 조명 LED 독서등 책상 테이블 미니램프</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>엘사 크리스탈 눈꽃&lt;b&gt;스탠드 조명&lt;/b&gt;</t>
+          <t>엘사 크리스탈 눈꽃스탠드 조명</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Flos Superloon 플로스 디자인 &lt;b&gt;조명&lt;/b&gt; 플로어 &lt;b&gt;스탠드&lt;/b&gt; 거실 장&lt;b&gt;스탠드&lt;/b&gt; 슈퍼룬</t>
+          <t>Flos Superloon 플로스 디자인 조명 플로어 스탠드 거실 장스탠드 슈퍼룬</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>북유럽 낚시등 디자인 인테리어 활 장스탠드 &lt;b&gt;스탠드조명&lt;/b&gt;</t>
+          <t>북유럽 낚시등 디자인 인테리어 활 장스탠드 스탠드조명</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6269,7 +6269,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>루이스폴센 루이스폴센 LOUIS POULSEN PH 3½-2½ FLOOR lamp &lt;b&gt;스탠드 조명&lt;/b&gt; chrome</t>
+          <t>루이스폴센 루이스폴센 LOUIS POULSEN PH 3½-2½ FLOOR lamp 스탠드 조명 chrome</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>장&lt;b&gt;스탠드&lt;/b&gt; 활장&lt;b&gt;스탠드&lt;/b&gt; 스탠딩&lt;b&gt;조명&lt;/b&gt; 장&lt;b&gt;조명&lt;/b&gt; 거실장&lt;b&gt;스탠드&lt;/b&gt;</t>
+          <t>장스탠드 활장스탠드 스탠딩조명 장조명 거실장스탠드</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>코너 II 침실&lt;b&gt;스탠드&lt;/b&gt; LED&lt;b&gt;조명&lt;/b&gt; 인테리어 거실 호텔 카페</t>
+          <t>코너 II 침실스탠드 LED조명 인테리어 거실 호텔 카페</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>LED 플로어 램프 거실 침실 책상 &lt;b&gt;스탠드 조명&lt;/b&gt; 눈보호</t>
+          <t>LED 플로어 램프 거실 침실 책상 스탠드 조명 눈보호</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>프레디 장 &lt;b&gt;스탠드 조명&lt;/b&gt; 탁상조명 스탠드</t>
+          <t>프레디 장 스탠드 조명 탁상조명 스탠드</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
